--- a/biology/Zoologie/Dinocrocuta/Dinocrocuta.xlsx
+++ b/biology/Zoologie/Dinocrocuta/Dinocrocuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinocrocuta est un genre fossile de grands carnivores féliformes de la famille éteinte des Percrocutidae, qui vivait en Eurasie et en Afrique du Nord au Miocène supérieur, il y a entre 7 et 5 millions d'années.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dinocrocuta a été créé en 1975 par le paléontologue allemand Norbert Schmidt-Kittler (d).
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus grande espèce du genre, Dinocrocuta gigantea, atteignait une longueur de 1,90 m et une hauteur au garrot de 1,30 m pour les plus grands individus, avec une longueur totale du crâne de 43 cm[1],[2]. Le poids du spécimen holotype est évalué à environ 200 kg[3]. Sur la base de ce petit spécimen, les plus gros spécimens de cette espèce auraient atteint des poids proches de 300 kg, ce qui est comparable à la masse de la plus grande sous-espèce de tigre, ainsi que de plusieurs amphicyonidés et ursidés. Les autres espèces étaient de taille plus petite, mais toujours assez grandes comparées aux espèces de hyènes actuelles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus grande espèce du genre, Dinocrocuta gigantea, atteignait une longueur de 1,90 m et une hauteur au garrot de 1,30 m pour les plus grands individus, avec une longueur totale du crâne de 43 cm,. Le poids du spécimen holotype est évalué à environ 200 kg. Sur la base de ce petit spécimen, les plus gros spécimens de cette espèce auraient atteint des poids proches de 300 kg, ce qui est comparable à la masse de la plus grande sous-espèce de tigre, ainsi que de plusieurs amphicyonidés et ursidés. Les autres espèces étaient de taille plus petite, mais toujours assez grandes comparées aux espèces de hyènes actuelles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dinocrocuta était présent dans la majeure partie de l'Eurasie ainsi qu'en Afrique du Nord. D. gigantea a été trouvé dans toute l'Eurasie méridionale, de la Chine à l'Espagne[4],[5],[6]. D. algeriensis était présent en Afrique du Nord, et D. senyureki au Tibet[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dinocrocuta était présent dans la majeure partie de l'Eurasie ainsi qu'en Afrique du Nord. D. gigantea a été trouvé dans toute l'Eurasie méridionale, de la Chine à l'Espagne. D. algeriensis était présent en Afrique du Nord, et D. senyureki au Tibet.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>† Dinocrocuta algeriensis
 † Dinocrocuta gigantea
